--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H2">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I2">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J2">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N2">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O2">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P2">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q2">
-        <v>206.4528915016926</v>
+        <v>213.7716721645498</v>
       </c>
       <c r="R2">
-        <v>206.4528915016926</v>
+        <v>1923.945049480948</v>
       </c>
       <c r="S2">
-        <v>0.02611038805765359</v>
+        <v>0.0232307181204061</v>
       </c>
       <c r="T2">
-        <v>0.02611038805765359</v>
+        <v>0.02323071812040611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H3">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I3">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J3">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N3">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q3">
-        <v>40.77908967754298</v>
+        <v>41.71080949993823</v>
       </c>
       <c r="R3">
-        <v>40.77908967754298</v>
+        <v>375.397285499444</v>
       </c>
       <c r="S3">
-        <v>0.005157388924774511</v>
+        <v>0.0045327430349198</v>
       </c>
       <c r="T3">
-        <v>0.005157388924774511</v>
+        <v>0.004532743034919801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H4">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I4">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J4">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N4">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q4">
-        <v>150.4862538001786</v>
+        <v>154.4215994066431</v>
       </c>
       <c r="R4">
-        <v>150.4862538001786</v>
+        <v>1389.794394659788</v>
       </c>
       <c r="S4">
-        <v>0.01903220853670145</v>
+        <v>0.01678110392829163</v>
       </c>
       <c r="T4">
-        <v>0.01903220853670145</v>
+        <v>0.01678110392829163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H5">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I5">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J5">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N5">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q5">
-        <v>78.88401300313028</v>
+        <v>84.20694343948178</v>
       </c>
       <c r="R5">
-        <v>78.88401300313028</v>
+        <v>757.8624909553361</v>
       </c>
       <c r="S5">
-        <v>0.009976572263410692</v>
+        <v>0.009150827829600427</v>
       </c>
       <c r="T5">
-        <v>0.009976572263410692</v>
+        <v>0.009150827829600429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H6">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I6">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J6">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N6">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O6">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P6">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q6">
-        <v>8.123143921106861</v>
+        <v>10.03220475723556</v>
       </c>
       <c r="R6">
-        <v>8.123143921106861</v>
+        <v>90.28984281512001</v>
       </c>
       <c r="S6">
-        <v>0.001027345456319419</v>
+        <v>0.001090206754158442</v>
       </c>
       <c r="T6">
-        <v>0.001027345456319419</v>
+        <v>0.001090206754158442</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H7">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I7">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J7">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N7">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O7">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P7">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q7">
-        <v>958.0812335628706</v>
+        <v>985.8476075525512</v>
       </c>
       <c r="R7">
-        <v>958.0812335628706</v>
+        <v>8872.62846797296</v>
       </c>
       <c r="S7">
-        <v>0.1211698834398592</v>
+        <v>0.1071327536003057</v>
       </c>
       <c r="T7">
-        <v>0.1211698834398592</v>
+        <v>0.1071327536003058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H8">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I8">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J8">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N8">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P8">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q8">
-        <v>189.2425931051249</v>
+        <v>192.3571132612089</v>
       </c>
       <c r="R8">
-        <v>189.2425931051249</v>
+        <v>1731.21401935088</v>
       </c>
       <c r="S8">
-        <v>0.02393377737202068</v>
+        <v>0.02090358292742592</v>
       </c>
       <c r="T8">
-        <v>0.02393377737202068</v>
+        <v>0.02090358292742593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H9">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I9">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J9">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N9">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O9">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P9">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q9">
-        <v>698.3581320969212</v>
+        <v>712.1437690410844</v>
       </c>
       <c r="R9">
-        <v>698.3581320969212</v>
+        <v>6409.29392136976</v>
       </c>
       <c r="S9">
-        <v>0.08832233687615473</v>
+        <v>0.07738916476764353</v>
       </c>
       <c r="T9">
-        <v>0.08832233687615473</v>
+        <v>0.07738916476764354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H10">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I10">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J10">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N10">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O10">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P10">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q10">
-        <v>366.0752432997965</v>
+        <v>388.3358954371911</v>
       </c>
       <c r="R10">
-        <v>366.0752432997965</v>
+        <v>3495.023058934719</v>
       </c>
       <c r="S10">
-        <v>0.04629805177991064</v>
+        <v>0.04220073516566199</v>
       </c>
       <c r="T10">
-        <v>0.04629805177991064</v>
+        <v>0.042200735165662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H11">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I11">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J11">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N11">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O11">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P11">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q11">
-        <v>37.69688906623519</v>
+        <v>46.26536789582222</v>
       </c>
       <c r="R11">
-        <v>37.69688906623519</v>
+        <v>416.3883110624</v>
       </c>
       <c r="S11">
-        <v>0.004767578670980492</v>
+        <v>0.005027690102444569</v>
       </c>
       <c r="T11">
-        <v>0.004767578670980492</v>
+        <v>0.005027690102444569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H12">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I12">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J12">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N12">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O12">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P12">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q12">
-        <v>1082.947185476118</v>
+        <v>1210.842543151523</v>
       </c>
       <c r="R12">
-        <v>1082.947185476118</v>
+        <v>10897.58288836371</v>
       </c>
       <c r="S12">
-        <v>0.1369618563007308</v>
+        <v>0.1315831116598869</v>
       </c>
       <c r="T12">
-        <v>0.1369618563007308</v>
+        <v>0.131583111659887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H13">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I13">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J13">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N13">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P13">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q13">
-        <v>213.9064271338207</v>
+        <v>236.2577891655249</v>
       </c>
       <c r="R13">
-        <v>213.9064271338207</v>
+        <v>2126.320102489724</v>
       </c>
       <c r="S13">
-        <v>0.02705304721026138</v>
+        <v>0.02567430028628837</v>
       </c>
       <c r="T13">
-        <v>0.02705304721026138</v>
+        <v>0.02567430028628838</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H14">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I14">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J14">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N14">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O14">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P14">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q14">
-        <v>789.3745823579909</v>
+        <v>874.6726834748165</v>
       </c>
       <c r="R14">
-        <v>789.3745823579909</v>
+        <v>7872.054151273348</v>
       </c>
       <c r="S14">
-        <v>0.09983331557284776</v>
+        <v>0.0950512963278969</v>
       </c>
       <c r="T14">
-        <v>0.09983331557284776</v>
+        <v>0.09505129632789691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H15">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I15">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J15">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N15">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O15">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P15">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q15">
-        <v>413.7855335395051</v>
+        <v>476.9638021392951</v>
       </c>
       <c r="R15">
-        <v>413.7855335395051</v>
+        <v>4292.674219253656</v>
       </c>
       <c r="S15">
-        <v>0.05233203940508209</v>
+        <v>0.05183199218559777</v>
       </c>
       <c r="T15">
-        <v>0.05233203940508209</v>
+        <v>0.05183199218559778</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H16">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I16">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J16">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N16">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O16">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P16">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q16">
-        <v>42.60989411479369</v>
+        <v>56.82427516550223</v>
       </c>
       <c r="R16">
-        <v>42.60989411479369</v>
+        <v>511.41847648952</v>
       </c>
       <c r="S16">
-        <v>0.00538893334135585</v>
+        <v>0.006175133989456088</v>
       </c>
       <c r="T16">
-        <v>0.00538893334135585</v>
+        <v>0.006175133989456088</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H17">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I17">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J17">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N17">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O17">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P17">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q17">
-        <v>835.4527181375307</v>
+        <v>1163.84232378772</v>
       </c>
       <c r="R17">
-        <v>835.4527181375307</v>
+        <v>10474.58091408948</v>
       </c>
       <c r="S17">
-        <v>0.1056608823239154</v>
+        <v>0.1264755647310435</v>
       </c>
       <c r="T17">
-        <v>0.1056608823239154</v>
+        <v>0.1264755647310435</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H18">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I18">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J18">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N18">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O18">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P18">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q18">
-        <v>165.0207031079441</v>
+        <v>227.08717653716</v>
       </c>
       <c r="R18">
-        <v>165.0207031079441</v>
+        <v>2043.78458883444</v>
       </c>
       <c r="S18">
-        <v>0.02087040081809625</v>
+        <v>0.0246777233553796</v>
       </c>
       <c r="T18">
-        <v>0.02087040081809625</v>
+        <v>0.02467772335537961</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H19">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I19">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J19">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N19">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O19">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P19">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q19">
-        <v>608.9725789995186</v>
+        <v>840.72127647532</v>
       </c>
       <c r="R19">
-        <v>608.9725789995186</v>
+        <v>7566.49148827788</v>
       </c>
       <c r="S19">
-        <v>0.07701762004150559</v>
+        <v>0.09136177302571973</v>
       </c>
       <c r="T19">
-        <v>0.07701762004150559</v>
+        <v>0.09136177302571974</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H20">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I20">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J20">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N20">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O20">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P20">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q20">
-        <v>319.2198598028413</v>
+        <v>458.4499140570399</v>
       </c>
       <c r="R20">
-        <v>319.2198598028413</v>
+        <v>4126.04922651336</v>
       </c>
       <c r="S20">
-        <v>0.04037218541496488</v>
+        <v>0.04982007493296687</v>
       </c>
       <c r="T20">
-        <v>0.04037218541496488</v>
+        <v>0.04982007493296688</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H21">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I21">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J21">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N21">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O21">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P21">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q21">
-        <v>32.87191871883009</v>
+        <v>54.6185768168</v>
       </c>
       <c r="R21">
-        <v>32.87191871883009</v>
+        <v>491.5671913512</v>
       </c>
       <c r="S21">
-        <v>0.004157357873291224</v>
+        <v>0.005935439196977199</v>
       </c>
       <c r="T21">
-        <v>0.004157357873291224</v>
+        <v>0.005935439196977199</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H22">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I22">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J22">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N22">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O22">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P22">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q22">
-        <v>284.7616741106617</v>
+        <v>327.6641344692898</v>
       </c>
       <c r="R22">
-        <v>284.7616741106617</v>
+        <v>2948.977210223608</v>
       </c>
       <c r="S22">
-        <v>0.03601421012267831</v>
+        <v>0.03560749218523072</v>
       </c>
       <c r="T22">
-        <v>0.03601421012267831</v>
+        <v>0.03560749218523074</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H23">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I23">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J23">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N23">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O23">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P23">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q23">
-        <v>56.24683558956471</v>
+        <v>63.93333669715822</v>
       </c>
       <c r="R23">
-        <v>56.24683558956471</v>
+        <v>575.400030274424</v>
       </c>
       <c r="S23">
-        <v>0.007113616542621951</v>
+        <v>0.006947680711247178</v>
       </c>
       <c r="T23">
-        <v>0.007113616542621951</v>
+        <v>0.00694768071124718</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H24">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I24">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J24">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N24">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O24">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P24">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q24">
-        <v>207.5665651911175</v>
+        <v>236.6937546055831</v>
       </c>
       <c r="R24">
-        <v>207.5665651911175</v>
+        <v>2130.243791450248</v>
       </c>
       <c r="S24">
-        <v>0.026251235938199</v>
+        <v>0.02572167695760165</v>
       </c>
       <c r="T24">
-        <v>0.026251235938199</v>
+        <v>0.02572167695760166</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H25">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I25">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J25">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N25">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O25">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P25">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q25">
-        <v>108.805177975211</v>
+        <v>129.0704000161618</v>
       </c>
       <c r="R25">
-        <v>108.805177975211</v>
+        <v>1161.633600145456</v>
       </c>
       <c r="S25">
-        <v>0.01376074415306279</v>
+        <v>0.01402617124197592</v>
       </c>
       <c r="T25">
-        <v>0.01376074415306279</v>
+        <v>0.01402617124197593</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H26">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I26">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J26">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N26">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O26">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P26">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q26">
-        <v>11.20429965979561</v>
+        <v>15.37712483283556</v>
       </c>
       <c r="R26">
-        <v>11.20429965979561</v>
+        <v>138.39412349552</v>
       </c>
       <c r="S26">
-        <v>0.001417023563601196</v>
+        <v>0.001671042981873341</v>
       </c>
       <c r="T26">
-        <v>0.001417023563601196</v>
+        <v>0.001671042981873341</v>
       </c>
     </row>
   </sheetData>
